--- a/target/classes/examples/家庭餐饮.xlsx
+++ b/target/classes/examples/家庭餐饮.xlsx
@@ -1,22 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="11_39F50D3F6D63F0DCE978D14620681308F22CE5E5" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A397698C-C503-4FC8-A621-0A4D8EB09CE7}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>年份</t>
   </si>
@@ -70,10 +79,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>其他燃料消耗量单位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>食用油消耗量(kg/d)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -121,7 +126,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -230,7 +235,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -263,9 +268,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -298,6 +320,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -473,31 +512,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="K6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.3671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1015625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.89453125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.26171875" style="1" customWidth="1"/>
     <col min="5" max="5" width="21" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.3671875" style="1" customWidth="1"/>
     <col min="7" max="7" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="19.375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="1"/>
+    <col min="8" max="8" width="19.3671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="19.3671875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -533,10 +572,10 @@
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>14</v>
@@ -562,11 +601,8 @@
       <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>2001000109</v>
       </c>
@@ -605,10 +641,10 @@
         <v>180</v>
       </c>
       <c r="M2" s="1">
-        <v>180</v>
+        <v>0.6</v>
       </c>
       <c r="N2" s="1">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="O2" s="1">
         <v>0</v>
@@ -632,9 +668,6 @@
         <v>0</v>
       </c>
       <c r="V2" s="1">
-        <v>0</v>
-      </c>
-      <c r="W2" s="1">
         <v>0</v>
       </c>
     </row>
@@ -646,12 +679,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -659,12 +692,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/target/classes/examples/家庭餐饮.xlsx
+++ b/target/classes/examples/家庭餐饮.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="11" documentId="11_39F50D3F6D63F0DCE978D14620681308F22CE5E5" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A397698C-C503-4FC8-A621-0A4D8EB09CE7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{403F2C27-A740-4EFD-8065-F7E93717E97F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -515,26 +515,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="K6" sqref="A6:XFD6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.3671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1015625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.89453125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.26171875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.25" style="1" customWidth="1"/>
     <col min="5" max="5" width="21" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.3671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.375" style="1" customWidth="1"/>
     <col min="7" max="7" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.3671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="19.3671875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="19.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="19.375" style="1" customWidth="1"/>
     <col min="13" max="13" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -602,15 +602,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
-        <v>2001000109</v>
+        <v>2001000000</v>
       </c>
       <c r="B2" s="1">
         <v>2016</v>
       </c>
       <c r="C2" s="1">
-        <v>650102</v>
+        <v>210101</v>
       </c>
       <c r="D2" s="1">
         <v>13.67</v>
@@ -619,7 +619,6 @@
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <f t="shared" ref="F2" si="0">D2+E2</f>
         <v>13.67</v>
       </c>
       <c r="G2" s="1">
@@ -684,7 +683,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -697,7 +696,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
